--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC591077-3B8B-3D4C-8354-7739A11C9889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DF0AD1-05A0-4471-8992-D8FE88C7D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentManualCount="8"/>
+  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -823,18 +812,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1287,7 +1276,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1343,8 +1332,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1367,14 +1356,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1399,7 +1388,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1416,7 +1405,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1424,7 +1413,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1471,7 +1460,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1545,7 +1534,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1621,7 +1610,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1632,16 +1621,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1701,7 +1690,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,10 +1699,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1728,23 +1717,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1758,7 +1747,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1771,20 +1760,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2107,19 +2096,19 @@
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2128,7 +2117,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2143,7 +2132,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2156,13 +2145,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>36.349998474121094</v>
+        <v>36.25</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2180,7 +2169,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2194,13 +2183,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>158979.87939513591</v>
+        <v>158542.52737249999</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2224,7 +2213,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2246,8 +2235,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2255,7 +2244,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2266,7 +2255,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2280,7 +2269,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2292,8 +2281,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2304,7 +2293,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2315,7 +2304,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2329,7 +2318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2338,8 +2327,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2352,7 +2341,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2363,7 +2352,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2374,7 +2363,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2386,7 +2375,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2399,10 +2388,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>12.358608517817531</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12.32461011215263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2415,10 +2404,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.4602289751263124E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2.4670157101194471E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2434,7 +2423,7 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2447,11 +2436,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>1.3755158761725079E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>1.3793103448275862E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2469,919 +2458,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>6.2546978483516424</v>
+        <v>6.2566776476023858</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>10.387204912636951</v>
+        <v>10.390530542867451</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>8.3097639301095612</v>
+        <v>8.3124244342939608</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3445,7 +3434,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3453,7 +3442,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3461,7 +3450,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3478,7 +3467,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3504,13 +3493,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3560,7 +3549,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3582,7 +3571,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3633,7 +3622,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3657,7 +3646,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3708,7 +3697,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3732,7 +3721,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3783,7 +3772,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3801,7 +3790,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3852,7 +3841,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3870,7 +3859,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3888,7 +3877,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3906,7 +3895,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3924,7 +3913,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3946,7 +3935,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3997,7 +3986,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4048,7 +4037,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4099,7 +4088,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4150,7 +4139,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4201,7 +4190,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4252,7 +4241,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4303,7 +4292,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4324,7 +4313,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4345,7 +4334,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4366,7 +4355,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4387,7 +4376,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4408,7 +4397,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4429,7 +4418,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4450,7 +4439,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4501,7 +4490,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4522,7 +4511,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4543,7 +4532,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4564,7 +4553,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4615,7 +4604,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4666,7 +4655,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4684,7 +4673,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4735,7 +4724,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4786,7 +4775,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4837,7 +4826,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4888,7 +4877,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4939,7 +4928,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4990,7 +4979,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5041,7 +5030,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5059,7 +5048,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5110,7 +5099,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5161,7 +5150,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5178,7 +5167,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5228,7 +5217,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5278,7 +5267,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5328,7 +5317,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5378,1260 +5367,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6670,7 +6659,7 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6679,11 +6668,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6699,7 +6688,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6722,7 +6711,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6738,7 +6727,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6753,7 +6742,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6778,7 +6767,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6801,13 +6790,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6826,7 +6815,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6851,7 +6840,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6876,7 +6865,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6899,7 +6888,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6922,7 +6911,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6943,7 +6932,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6966,7 +6955,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6984,7 +6973,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7004,7 +6993,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7023,7 +7012,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7043,7 +7032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7065,7 +7054,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7084,7 +7073,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7106,7 +7095,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7115,7 +7104,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7137,7 +7126,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7166,7 +7155,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7199,7 +7188,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7232,7 +7221,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7261,7 +7250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7273,7 +7262,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7292,7 +7281,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7314,7 +7303,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7334,7 +7323,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7357,7 +7346,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7382,7 +7371,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7403,7 +7392,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7427,7 +7416,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7449,7 +7438,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7468,7 +7457,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7485,7 +7474,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7504,7 +7493,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7523,7 +7512,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7547,7 +7536,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7556,7 +7545,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7575,7 +7564,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7594,7 +7583,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7624,7 +7613,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7654,7 +7643,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7680,7 +7669,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7707,20 +7696,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7737,7 +7726,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7758,7 +7747,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7767,7 +7756,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7778,7 +7767,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7793,7 +7782,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7808,7 +7797,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7822,7 +7811,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7831,7 +7820,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7845,7 +7834,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7866,7 +7855,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7887,7 +7876,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7908,7 +7897,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7923,7 +7912,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7944,7 +7933,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7954,7 +7943,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7968,7 +7957,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7989,7 +7978,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8004,7 +7993,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8025,7 +8014,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8039,7 +8028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8053,7 +8042,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8068,7 +8057,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8089,7 +8078,7 @@
         <v>0.47272944175123971</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8104,7 +8093,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8125,7 +8114,7 @@
         <v>0.35112695227219692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8140,7 +8129,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8161,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8182,7 +8171,7 @@
         <v>2.9999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8206,7 +8195,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8226,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8247,7 +8236,7 @@
         <v>0.1461436059765634</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8258,7 +8247,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8279,7 +8268,7 @@
         <v>0.10960770448242255</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8294,7 +8283,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8314,11 +8303,11 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8328,7 +8317,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8339,7 +8328,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8352,11 +8341,11 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4602289751263124E-2</v>
+        <v>2.4670157101194471E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8373,14 +8362,14 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>12.022014582086664</v>
+        <v>12.025996665539454</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8398,25 +8387,25 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>35129227.98202505</v>
+        <v>35140863.928438291</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>8.0321320433881986</v>
+        <v>8.0347925475726019</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>5.9770659616302826</v>
+        <v>5.9790457608810259</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8432,7 +8421,7 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8450,32 +8439,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>36343475.182025053</v>
+        <v>36355111.128438294</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>8.3097639301095612</v>
+        <v>8.3124244342939608</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>6.2546978483516424</v>
+        <v>6.2566776476023858</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>10.387204912636951</v>
+        <v>10.390530542867451</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8492,7 +8481,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8516,10 +8505,10 @@
         <v>223</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>226</v>
       </c>
@@ -8536,28 +8525,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>227</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>35256061.66132503</v>
+        <v>35261879.63453164</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>8.0611319650547806</v>
+        <v>8.0624622171469795</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>6.0458489737910854</v>
+        <v>6.0468466628602346</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>10.076414956318477</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>10.078077771433724</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DF0AD1-05A0-4471-8992-D8FE88C7D9CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{62747E4F-BEB9-8C46-AD46-DDD62DA1107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -769,10 +780,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>C0003</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Initial Rate of Return (E/P)</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -805,6 +812,9 @@
   </si>
   <si>
     <t>銀河娛樂</t>
+  </si>
+  <si>
+    <t>C0011</t>
   </si>
 </sst>
 </file>
@@ -812,18 +822,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1276,7 +1286,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1332,8 +1342,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1356,14 +1366,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1388,7 +1398,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1405,7 +1415,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1413,7 +1423,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1460,7 +1470,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1534,7 +1544,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1610,7 +1620,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,16 +1631,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1690,7 +1700,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1699,10 +1709,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1717,23 +1727,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1747,7 +1757,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1760,20 +1770,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2092,23 +2102,23 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2117,7 +2127,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2132,12 +2142,12 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C3" s="201" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="202"/>
       <c r="E3" s="94"/>
@@ -2145,18 +2155,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>36.25</v>
+        <v>36.299999237060547</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
       <c r="C4" s="203" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="204"/>
       <c r="E4" s="94"/>
@@ -2169,7 +2179,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2183,13 +2193,13 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>158542.52737249999</v>
+        <v>158761.20338381795</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2213,7 +2223,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>71</v>
       </c>
       <c r="D7" s="192" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E7" s="94"/>
       <c r="F7" s="35" t="s">
@@ -2235,8 +2245,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2244,7 +2254,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2255,7 +2265,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2269,7 +2279,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2281,8 +2291,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2293,7 +2303,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2304,7 +2314,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2318,7 +2328,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2327,8 +2337,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2341,7 +2351,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2352,7 +2362,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2363,7 +2373,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2375,7 +2385,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2388,10 +2398,10 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>12.32461011215263</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>12.341609314985082</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2404,10 +2414,10 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.4670157101194471E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>2.4636176686341896E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2423,7 +2433,7 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2436,11 +2446,11 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>1.3793103448275862E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.3774104972694438E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2458,919 +2468,919 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>6.2566776476023858</v>
+        <v>6.2556863189332583</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>10.390530542867451</v>
+        <v>10.388865327270885</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>8.3124244342939608</v>
+        <v>8.3110922618167073</v>
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3428,13 +3438,13 @@
   </sheetPr>
   <dimension ref="A1:N928"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3442,7 +3452,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3450,7 +3460,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3467,7 +3477,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3493,13 +3503,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3549,7 +3559,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3571,7 +3581,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3622,7 +3632,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3646,7 +3656,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3697,7 +3707,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3721,7 +3731,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3772,7 +3782,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3790,7 +3800,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3841,7 +3851,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3859,7 +3869,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3877,7 +3887,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3895,7 +3905,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3913,7 +3923,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3935,7 +3945,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3986,7 +3996,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4037,7 +4047,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4088,7 +4098,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4139,7 +4149,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4190,7 +4200,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4241,7 +4251,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4292,7 +4302,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4313,7 +4323,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4334,7 +4344,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4355,7 +4365,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4376,7 +4386,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4397,7 +4407,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4418,7 +4428,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4439,7 +4449,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4490,7 +4500,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4511,7 +4521,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4532,7 +4542,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4553,7 +4563,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4604,7 +4614,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4655,7 +4665,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4673,7 +4683,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4724,7 +4734,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4775,7 +4785,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4826,7 +4836,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4877,7 +4887,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4928,7 +4938,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4979,7 +4989,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5030,7 +5040,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5048,7 +5058,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5099,7 +5109,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5150,7 +5160,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5167,7 +5177,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5217,7 +5227,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5267,7 +5277,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5317,7 +5327,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5367,1260 +5377,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6659,7 +6669,7 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6668,11 +6678,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6688,7 +6698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6711,7 +6721,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6727,7 +6737,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6742,7 +6752,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6767,7 +6777,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6790,13 +6800,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6815,7 +6825,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6840,7 +6850,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6865,7 +6875,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6888,7 +6898,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6911,7 +6921,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6932,7 +6942,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6955,7 +6965,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6973,7 +6983,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -6993,7 +7003,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7012,7 +7022,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7032,7 +7042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7054,7 +7064,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7073,7 +7083,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7095,7 +7105,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7104,7 +7114,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7126,7 +7136,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7155,7 +7165,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7188,7 +7198,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7221,7 +7231,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7250,7 +7260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7262,7 +7272,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7281,7 +7291,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7303,7 +7313,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7323,7 +7333,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7346,7 +7356,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7371,7 +7381,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7392,7 +7402,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7416,7 +7426,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7438,7 +7448,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7457,7 +7467,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7474,7 +7484,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7493,7 +7503,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7512,7 +7522,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7536,7 +7546,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7545,7 +7555,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7564,7 +7574,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7583,7 +7593,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7613,7 +7623,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7643,7 +7653,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7669,7 +7679,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7696,20 +7706,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7726,7 +7736,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7747,7 +7757,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7756,7 +7766,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7767,7 +7777,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7782,7 +7792,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7797,7 +7807,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7811,7 +7821,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7820,7 +7830,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7834,7 +7844,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7855,7 +7865,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7876,7 +7886,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7897,7 +7907,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7912,7 +7922,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7933,7 +7943,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7943,7 +7953,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7957,7 +7967,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7978,7 +7988,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -7993,7 +8003,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8014,7 +8024,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8028,7 +8038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8042,7 +8052,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8057,7 +8067,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8078,7 +8088,7 @@
         <v>0.47272944175123971</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8093,7 +8103,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8114,7 +8124,7 @@
         <v>0.35112695227219692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8129,7 +8139,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8150,7 +8160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8171,7 +8181,7 @@
         <v>2.9999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8195,7 +8205,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8215,7 +8225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8236,7 +8246,7 @@
         <v>0.1461436059765634</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8247,7 +8257,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8268,7 +8278,7 @@
         <v>0.10960770448242255</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8283,7 +8293,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8303,11 +8313,11 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8317,7 +8327,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8328,7 +8338,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8336,16 +8346,16 @@
         <v>211</v>
       </c>
       <c r="D91" s="211" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4670157101194471E-2</v>
+        <v>2.4636176686341896E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8358,18 +8368,18 @@
         <v>5</v>
       </c>
       <c r="E92" s="94" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>12.025996665539454</v>
+        <v>12.024002749495629</v>
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8380,32 +8390,32 @@
         <v>HKD</v>
       </c>
       <c r="D94" s="196" t="s">
+        <v>223</v>
+      </c>
+      <c r="E94" s="155" t="s">
         <v>224</v>
       </c>
-      <c r="E94" s="155" t="s">
-        <v>225</v>
-      </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>35140863.928438291</v>
+        <v>35135037.556260638</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>8.0347925475726019</v>
+        <v>8.0334603750953466</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>5.9790457608810259</v>
+        <v>5.9780544322118985</v>
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8421,7 +8431,7 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8439,32 +8449,32 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>36355111.128438294</v>
+        <v>36349284.756260641</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>8.3124244342939608</v>
+        <v>8.3110922618167073</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>6.2566776476023858</v>
+        <v>6.2556863189332583</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>10.390530542867451</v>
+        <v>10.388865327270885</v>
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8481,7 +8491,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8502,15 +8512,15 @@
         <v>9.765625</v>
       </c>
       <c r="H101" s="24" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="10" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C103" s="163" t="str">
         <f>C100</f>
@@ -8525,28 +8535,28 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B104" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>35261879.63453164</v>
+        <v>35258966.448442817</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>8.0624622171469795</v>
+        <v>8.0617961309083537</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>6.0468466628602346</v>
+        <v>6.0463470981812648</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>10.078077771433724</v>
-      </c>
-    </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+        <v>10.077245163635443</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62747E4F-BEB9-8C46-AD46-DDD62DA1107C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEC34BF-A403-4EFF-B9E8-A70EE45CD862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -21,21 +21,10 @@
     <definedName name="Common_Shares">Dashboard!$G$4</definedName>
     <definedName name="Exchange_Rate">Dashboard!$G$7</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentManualCount="16"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -822,18 +811,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="168" formatCode="0.00\x"/>
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="180" formatCode="0.00\x"/>
+    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="27" x14ac:knownFonts="1">
     <font>
@@ -1286,7 +1275,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="215">
@@ -1342,8 +1331,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1366,14 +1355,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1398,7 +1387,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1415,7 +1404,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1423,7 +1412,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1470,7 +1459,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="2" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1544,7 +1533,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1620,7 +1609,7 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="13" fillId="11" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,16 +1620,16 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1700,7 +1689,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1709,10 +1698,10 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="171" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1727,23 +1716,23 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1757,7 +1746,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1770,20 +1759,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -2106,19 +2095,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
       <c r="D1" s="94"/>
@@ -2127,7 +2116,7 @@
       <c r="G1" s="94"/>
       <c r="H1" s="94"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2142,7 +2131,7 @@
       <c r="G2" s="93"/>
       <c r="H2" s="93"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>217</v>
       </c>
@@ -2161,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B4" s="35" t="s">
         <v>218</v>
       </c>
@@ -2179,7 +2168,7 @@
       <c r="H4" s="207"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>178</v>
       </c>
@@ -2199,7 +2188,7 @@
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="94" t="s">
         <v>4</v>
       </c>
@@ -2223,7 +2212,7 @@
       <c r="H6" s="200"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="93" t="s">
         <v>215</v>
       </c>
@@ -2245,8 +2234,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="177" t="s">
         <v>213</v>
       </c>
@@ -2254,7 +2243,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
         <v>195</v>
       </c>
@@ -2265,7 +2254,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="146" t="s">
         <v>199</v>
       </c>
@@ -2279,7 +2268,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="94" t="s">
         <v>142</v>
       </c>
@@ -2291,8 +2280,8 @@
       </c>
       <c r="F12" s="125"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
         <v>196</v>
       </c>
@@ -2303,7 +2292,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
         <v>207</v>
       </c>
@@ -2314,7 +2303,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="146" t="s">
         <v>208</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="94" t="s">
         <v>201</v>
       </c>
@@ -2337,8 +2326,8 @@
       </c>
       <c r="D17" s="185"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="182" t="s">
         <v>204</v>
       </c>
@@ -2351,7 +2340,7 @@
       <c r="G19" s="94"/>
       <c r="H19" s="94"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="174" t="s">
         <v>185</v>
       </c>
@@ -2362,7 +2351,7 @@
       <c r="F20" s="94"/>
       <c r="G20" s="29"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="174" t="s">
         <v>186</v>
       </c>
@@ -2373,7 +2362,7 @@
       <c r="F21" s="94"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="174" t="s">
         <v>187</v>
       </c>
@@ -2385,7 +2374,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="174" t="s">
         <v>188</v>
       </c>
@@ -2401,7 +2390,7 @@
         <v>12.341609314985082</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="174" t="s">
         <v>189</v>
       </c>
@@ -2417,7 +2406,7 @@
         <v>2.4636176686341896E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="174" t="s">
         <v>214</v>
       </c>
@@ -2433,7 +2422,7 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="176" t="s">
         <v>191</v>
       </c>
@@ -2449,8 +2438,8 @@
         <v>1.3774104972694438E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="99" t="s">
         <v>7</v>
@@ -2468,7 +2457,7 @@
       <c r="G28" s="93"/>
       <c r="H28" s="93"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="94" t="s">
         <v>184</v>
       </c>
@@ -2487,900 +2476,900 @@
       </c>
       <c r="H29" s="94"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="G5:H5"/>
@@ -3444,7 +3433,7 @@
       <selection pane="topRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -3452,7 +3441,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -3460,7 +3449,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -3477,7 +3466,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="116" t="s">
         <v>10</v>
@@ -3503,13 +3492,13 @@
       <c r="L3" s="94"/>
       <c r="M3" s="94"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="C4" s="94"/>
       <c r="F4" s="94"/>
       <c r="J4" s="94"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="139" t="s">
         <v>146</v>
@@ -3559,7 +3548,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="105" t="s">
         <v>12</v>
@@ -3581,7 +3570,7 @@
       <c r="M6" s="58"/>
       <c r="N6" s="94"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="107" t="s">
         <v>13</v>
@@ -3632,7 +3621,7 @@
       </c>
       <c r="N7" s="94"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="108" t="s">
         <v>109</v>
@@ -3656,7 +3645,7 @@
       <c r="M8" s="92"/>
       <c r="N8" s="94"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="109" t="s">
         <v>105</v>
@@ -3707,7 +3696,7 @@
       </c>
       <c r="N9" s="94"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="108" t="s">
         <v>107</v>
@@ -3731,7 +3720,7 @@
       <c r="M10" s="92"/>
       <c r="N10" s="94"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="105" t="s">
         <v>100</v>
@@ -3782,7 +3771,7 @@
       </c>
       <c r="N11" s="94"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="108" t="s">
         <v>108</v>
@@ -3800,7 +3789,7 @@
       <c r="M12" s="92"/>
       <c r="N12" s="94"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="109" t="s">
         <v>106</v>
@@ -3851,7 +3840,7 @@
       </c>
       <c r="N13" s="94"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="108" t="s">
         <v>110</v>
@@ -3869,7 +3858,7 @@
       <c r="M14" s="92"/>
       <c r="N14" s="94"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="108" t="s">
         <v>111</v>
@@ -3887,7 +3876,7 @@
       <c r="M15" s="92"/>
       <c r="N15" s="94"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="108" t="s">
         <v>113</v>
@@ -3905,7 +3894,7 @@
       <c r="M16" s="92"/>
       <c r="N16" s="94"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="108" t="s">
         <v>129</v>
@@ -3923,7 +3912,7 @@
       <c r="M17" s="92"/>
       <c r="N17" s="94"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="110" t="s">
         <v>114</v>
@@ -3945,7 +3934,7 @@
       <c r="M18" s="92"/>
       <c r="N18" s="94"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="105" t="s">
         <v>115</v>
@@ -3996,7 +3985,7 @@
       </c>
       <c r="N19" s="94"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="109" t="s">
         <v>116</v>
@@ -4047,7 +4036,7 @@
       </c>
       <c r="N20" s="94"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="111" t="s">
         <v>117</v>
@@ -4098,7 +4087,7 @@
       </c>
       <c r="N21" s="94"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="113" t="s">
         <v>118</v>
@@ -4149,7 +4138,7 @@
       </c>
       <c r="N22" s="94"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="4"/>
       <c r="B23" s="112" t="s">
         <v>138</v>
@@ -4200,7 +4189,7 @@
       </c>
       <c r="N23" s="94"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="16"/>
       <c r="B24" s="138" t="s">
         <v>147</v>
@@ -4251,7 +4240,7 @@
       </c>
       <c r="N24" s="94"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="105" t="s">
         <v>14</v>
@@ -4302,7 +4291,7 @@
       </c>
       <c r="N25" s="94"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="105" t="s">
         <v>15</v>
@@ -4323,7 +4312,7 @@
       <c r="M26" s="92"/>
       <c r="N26" s="94"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="105" t="s">
         <v>121</v>
@@ -4344,7 +4333,7 @@
       <c r="M27" s="92"/>
       <c r="N27" s="94"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="105" t="s">
         <v>161</v>
@@ -4365,7 +4354,7 @@
       <c r="M28" s="92"/>
       <c r="N28" s="94"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="105" t="s">
         <v>16</v>
@@ -4386,7 +4375,7 @@
       <c r="M29" s="92"/>
       <c r="N29" s="94"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="105" t="s">
         <v>120</v>
@@ -4407,7 +4396,7 @@
       <c r="M30" s="92"/>
       <c r="N30" s="94"/>
     </row>
-    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="105" t="s">
         <v>17</v>
@@ -4428,7 +4417,7 @@
       <c r="M31" s="92"/>
       <c r="N31" s="94"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="105" t="s">
         <v>18</v>
@@ -4449,7 +4438,7 @@
       <c r="M32" s="92"/>
       <c r="N32" s="94"/>
     </row>
-    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="105" t="s">
         <v>19</v>
@@ -4500,7 +4489,7 @@
       </c>
       <c r="N33" s="94"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="105" t="s">
         <v>150</v>
@@ -4521,7 +4510,7 @@
       <c r="M34" s="92"/>
       <c r="N34" s="94"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="105" t="s">
         <v>151</v>
@@ -4542,7 +4531,7 @@
       <c r="M35" s="92"/>
       <c r="N35" s="94"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="105" t="s">
         <v>149</v>
@@ -4563,7 +4552,7 @@
       <c r="M36" s="92"/>
       <c r="N36" s="94"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="105" t="s">
         <v>153</v>
@@ -4614,7 +4603,7 @@
       </c>
       <c r="N37" s="94"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="109" t="s">
         <v>171</v>
@@ -4665,7 +4654,7 @@
       </c>
       <c r="N38" s="94"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
         <v>132</v>
@@ -4683,7 +4672,7 @@
       <c r="M39" s="54"/>
       <c r="N39" s="94"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="106" t="s">
         <v>99</v>
@@ -4734,7 +4723,7 @@
       </c>
       <c r="N40" s="94"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="105" t="s">
         <v>126</v>
@@ -4785,7 +4774,7 @@
       </c>
       <c r="N41" s="94"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="105" t="s">
         <v>101</v>
@@ -4836,7 +4825,7 @@
       </c>
       <c r="N42" s="94"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="105" t="s">
         <v>112</v>
@@ -4887,7 +4876,7 @@
       </c>
       <c r="N43" s="94"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="105" t="s">
         <v>127</v>
@@ -4938,7 +4927,7 @@
       </c>
       <c r="N44" s="94"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="105" t="s">
         <v>139</v>
@@ -4989,7 +4978,7 @@
       </c>
       <c r="N45" s="94"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="105" t="s">
         <v>130</v>
@@ -5040,7 +5029,7 @@
       </c>
       <c r="N46" s="94"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="114" t="s">
         <v>162</v>
@@ -5058,7 +5047,7 @@
       <c r="M47" s="36"/>
       <c r="N47" s="94"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="106" t="s">
         <v>159</v>
@@ -5109,7 +5098,7 @@
       </c>
       <c r="N48" s="94"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="105" t="s">
         <v>160</v>
@@ -5160,7 +5149,7 @@
       </c>
       <c r="N49" s="94"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="16"/>
       <c r="B50" s="114" t="s">
         <v>131</v>
@@ -5177,7 +5166,7 @@
       <c r="L50" s="36"/>
       <c r="M50" s="36"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="106" t="s">
         <v>20</v>
@@ -5227,7 +5216,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="105" t="s">
         <v>125</v>
@@ -5277,7 +5266,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="105" t="s">
         <v>128</v>
@@ -5327,7 +5316,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="109" t="s">
         <v>21</v>
@@ -5377,1260 +5366,1260 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
     </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M21 C25:M38">
@@ -6669,7 +6658,7 @@
       <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -6678,11 +6667,11 @@
     <col min="8" max="8" width="19" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -6698,7 +6687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -6721,7 +6710,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -6737,7 +6726,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C5" s="94"/>
       <c r="D5" s="94"/>
       <c r="E5" s="11" t="s">
@@ -6752,7 +6741,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -6777,7 +6766,7 @@
       <c r="J6" s="94"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -6800,13 +6789,13 @@
       <c r="J7" s="94"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C8" s="94"/>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -6825,7 +6814,7 @@
       <c r="I9" s="93"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="3" t="s">
         <v>33</v>
       </c>
@@ -6850,7 +6839,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -6875,7 +6864,7 @@
       <c r="J11" s="94"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>148</v>
       </c>
@@ -6898,7 +6887,7 @@
       <c r="J12" s="94"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -6921,7 +6910,7 @@
       <c r="J13" s="94"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -6942,7 +6931,7 @@
       <c r="J14" s="94"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -6965,7 +6954,7 @@
       </c>
       <c r="J15" s="94"/>
     </row>
-    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
         <v>172</v>
       </c>
@@ -6983,7 +6972,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="94"/>
     </row>
-    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -7003,7 +6992,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="94"/>
     </row>
-    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -7022,7 +7011,7 @@
       <c r="H18" s="94"/>
       <c r="I18" s="94"/>
     </row>
-    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -7042,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -7064,7 +7053,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -7083,7 +7072,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -7105,7 +7094,7 @@
         <v>2867112</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C23" s="94"/>
       <c r="D23" s="94"/>
       <c r="E23" s="94"/>
@@ -7114,7 +7103,7 @@
       </c>
       <c r="G23" s="94"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -7136,7 +7125,7 @@
       </c>
       <c r="G24" s="94"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -7165,7 +7154,7 @@
         <v>2.0221788132366587</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -7198,7 +7187,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -7231,7 +7220,7 @@
         <v>Liquidity Problem!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="85" t="s">
         <v>15</v>
       </c>
@@ -7260,7 +7249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="94"/>
       <c r="D29" s="94"/>
       <c r="E29" s="94"/>
@@ -7272,7 +7261,7 @@
       <c r="I29" s="94"/>
       <c r="J29" s="94"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -7291,7 +7280,7 @@
       <c r="I30" s="63"/>
       <c r="J30" s="94"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -7313,7 +7302,7 @@
       </c>
       <c r="J31" s="94"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -7333,7 +7322,7 @@
       <c r="I32" s="63"/>
       <c r="J32" s="94"/>
     </row>
-    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
         <v>173</v>
       </c>
@@ -7356,7 +7345,7 @@
       <c r="I33" s="144"/>
       <c r="J33" s="94"/>
     </row>
-    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -7381,7 +7370,7 @@
       </c>
       <c r="J34" s="94"/>
     </row>
-    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -7402,7 +7391,7 @@
       </c>
       <c r="J35" s="94"/>
     </row>
-    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -7426,7 +7415,7 @@
       <c r="H36" s="94"/>
       <c r="I36" s="94"/>
     </row>
-    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -7448,7 +7437,7 @@
       <c r="H37" s="94"/>
       <c r="I37" s="94"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -7467,7 +7456,7 @@
       <c r="H38" s="94"/>
       <c r="I38" s="94"/>
     </row>
-    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -7484,7 +7473,7 @@
       <c r="H39" s="94"/>
       <c r="I39" s="94"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -7503,7 +7492,7 @@
       <c r="H40" s="94"/>
       <c r="I40" s="94"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -7522,7 +7511,7 @@
       <c r="H41" s="94"/>
       <c r="I41" s="94"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -7546,7 +7535,7 @@
         <v>153937</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C43" s="94"/>
       <c r="D43" s="94"/>
       <c r="E43" s="94"/>
@@ -7555,7 +7544,7 @@
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -7574,7 +7563,7 @@
       <c r="F44" s="78"/>
       <c r="G44" s="94"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -7593,7 +7582,7 @@
       <c r="F45" s="78"/>
       <c r="G45" s="94"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -7623,7 +7612,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -7653,7 +7642,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="87" t="s">
         <v>84</v>
       </c>
@@ -7679,7 +7668,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:10" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -7706,20 +7695,20 @@
       </c>
       <c r="J49" s="94"/>
     </row>
-    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C50" s="94"/>
       <c r="D50" s="94"/>
       <c r="E50" s="94"/>
       <c r="I50" s="94"/>
     </row>
-    <row r="51" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -7736,7 +7725,7 @@
       </c>
       <c r="I52" s="94"/>
     </row>
-    <row r="53" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -7757,7 +7746,7 @@
       <c r="H53" s="94"/>
       <c r="I53" s="41"/>
     </row>
-    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C54" s="94"/>
       <c r="D54" s="94"/>
       <c r="E54" s="94"/>
@@ -7766,7 +7755,7 @@
       <c r="H54" s="94"/>
       <c r="I54" s="94"/>
     </row>
-    <row r="55" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
         <v>163</v>
       </c>
@@ -7777,7 +7766,7 @@
       <c r="H55" s="94"/>
       <c r="I55" s="94"/>
     </row>
-    <row r="56" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -7792,7 +7781,7 @@
       <c r="H56" s="94"/>
       <c r="I56" s="56"/>
     </row>
-    <row r="57" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -7807,7 +7796,7 @@
       </c>
       <c r="I57" s="94"/>
     </row>
-    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -7821,7 +7810,7 @@
       <c r="H58" s="94"/>
       <c r="I58" s="94"/>
     </row>
-    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C59" s="94"/>
       <c r="D59" s="94"/>
       <c r="E59" s="94"/>
@@ -7830,7 +7819,7 @@
       <c r="H59" s="94"/>
       <c r="I59" s="94"/>
     </row>
-    <row r="60" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
         <v>166</v>
       </c>
@@ -7844,7 +7833,7 @@
       <c r="H60" s="94"/>
       <c r="I60" s="94"/>
     </row>
-    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -7865,7 +7854,7 @@
       <c r="H61" s="94"/>
       <c r="I61" s="94"/>
     </row>
-    <row r="62" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
         <v>152</v>
       </c>
@@ -7886,7 +7875,7 @@
       <c r="H62" s="94"/>
       <c r="I62" s="94"/>
     </row>
-    <row r="63" spans="2:10" ht="14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
         <v>154</v>
       </c>
@@ -7907,7 +7896,7 @@
       <c r="H63" s="94"/>
       <c r="I63" s="94"/>
     </row>
-    <row r="64" spans="2:10" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="145" t="s">
         <v>164</v>
       </c>
@@ -7922,7 +7911,7 @@
       <c r="H64" s="94"/>
       <c r="I64" s="94"/>
     </row>
-    <row r="65" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>155</v>
       </c>
@@ -7943,7 +7932,7 @@
       <c r="H65" s="94"/>
       <c r="I65" s="94"/>
     </row>
-    <row r="66" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3"/>
       <c r="C66" s="74"/>
       <c r="D66" s="29"/>
@@ -7953,7 +7942,7 @@
       <c r="H66" s="94"/>
       <c r="I66" s="94"/>
     </row>
-    <row r="67" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
         <v>167</v>
       </c>
@@ -7967,7 +7956,7 @@
       <c r="H67" s="94"/>
       <c r="I67" s="94"/>
     </row>
-    <row r="68" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:9" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
         <v>153</v>
       </c>
@@ -7988,7 +7977,7 @@
       <c r="H68" s="94"/>
       <c r="I68" s="94"/>
     </row>
-    <row r="69" spans="1:9" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="145" t="s">
         <v>165</v>
       </c>
@@ -8003,7 +7992,7 @@
       <c r="H69" s="94"/>
       <c r="I69" s="94"/>
     </row>
-    <row r="70" spans="1:9" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:9" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
         <v>156</v>
       </c>
@@ -8024,7 +8013,7 @@
       <c r="H70" s="94"/>
       <c r="I70" s="94"/>
     </row>
-    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="120" t="s">
         <v>137</v>
@@ -8038,7 +8027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!E3&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -8052,7 +8041,7 @@
       </c>
       <c r="F73" s="212"/>
     </row>
-    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -8067,7 +8056,7 @@
       </c>
       <c r="F74" s="130"/>
     </row>
-    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="117" t="s">
         <v>109</v>
       </c>
@@ -8088,7 +8077,7 @@
         <v>0.47272944175123971</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -8103,7 +8092,7 @@
       </c>
       <c r="F76" s="132"/>
     </row>
-    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="117" t="s">
         <v>133</v>
       </c>
@@ -8124,7 +8113,7 @@
         <v>0.35112695227219692</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -8139,7 +8128,7 @@
       </c>
       <c r="F78" s="132"/>
     </row>
-    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="117" t="s">
         <v>129</v>
       </c>
@@ -8160,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -8181,7 +8170,7 @@
         <v>2.9999999999999995E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -8205,7 +8194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="79" t="s">
         <v>190</v>
       </c>
@@ -8225,7 +8214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="119" t="s">
         <v>134</v>
       </c>
@@ -8246,7 +8235,7 @@
         <v>0.1461436059765634</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -8257,7 +8246,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="93" t="s">
         <v>179</v>
       </c>
@@ -8278,7 +8267,7 @@
         <v>0.10960770448242255</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="94" t="s">
         <v>174</v>
       </c>
@@ -8293,7 +8282,7 @@
       </c>
       <c r="F86" s="130"/>
     </row>
-    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="93" t="s">
         <v>175</v>
       </c>
@@ -8313,11 +8302,11 @@
         <v>0.55910075447424012</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="28"/>
       <c r="C88" s="95"/>
     </row>
-    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="5"/>
       <c r="B89" s="120" t="s">
         <v>168</v>
@@ -8327,7 +8316,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="10" t="s">
         <v>169</v>
       </c>
@@ -8338,7 +8327,7 @@
       <c r="G90" s="94"/>
       <c r="H90" s="24"/>
     </row>
-    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B91" s="1" t="s">
         <v>192</v>
       </c>
@@ -8355,7 +8344,7 @@
       </c>
       <c r="H91" s="195"/>
     </row>
-    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="1" t="str">
         <f>IF(C91="CN",Dashboard!B17,Dashboard!B12)</f>
         <v>Required Return (US)</v>
@@ -8376,10 +8365,10 @@
       </c>
       <c r="H92" s="195"/>
     </row>
-    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H93" s="24"/>
     </row>
-    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A94" s="5"/>
       <c r="B94" s="120" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -8397,7 +8386,7 @@
       </c>
       <c r="H94" s="24"/>
     </row>
-    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B95" s="1" t="s">
         <v>140</v>
       </c>
@@ -8415,7 +8404,7 @@
       </c>
       <c r="H95" s="24"/>
     </row>
-    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
         <v>157</v>
       </c>
@@ -8431,7 +8420,7 @@
       <c r="F96" s="137"/>
       <c r="H96" s="24"/>
     </row>
-    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B97" s="119" t="s">
         <v>158</v>
       </c>
@@ -8449,7 +8438,7 @@
       </c>
       <c r="H97" s="24"/>
     </row>
-    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>119</v>
       </c>
@@ -8471,10 +8460,10 @@
       </c>
       <c r="H98" s="24"/>
     </row>
-    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H99" s="24"/>
     </row>
-    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B100" s="10" t="s">
         <v>177</v>
       </c>
@@ -8491,7 +8480,7 @@
       </c>
       <c r="H100" s="24"/>
     </row>
-    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B101" s="1" t="s">
         <v>176</v>
       </c>
@@ -8515,10 +8504,10 @@
         <v>222</v>
       </c>
     </row>
-    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H102" s="24"/>
     </row>
-    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="10" t="s">
         <v>225</v>
       </c>
@@ -8535,7 +8524,7 @@
       </c>
       <c r="H103" s="24"/>
     </row>
-    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B104" s="1" t="s">
         <v>226</v>
       </c>
@@ -8556,7 +8545,7 @@
         <v>10.077245163635443</v>
       </c>
     </row>
-    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="10" t="s">
         <v>180</v>
       </c>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFEC34BF-A403-4EFF-B9E8-A70EE45CD862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99728067-0238-4399-99B7-DB9476D55001}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="368" yWindow="368" windowWidth="12689" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2144,7 +2144,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="169">
-        <v>36.299999237060547</v>
+        <v>35.950000762939453</v>
       </c>
       <c r="H3" s="171" t="s">
         <v>2</v>
@@ -2182,7 +2182,7 @@
       </c>
       <c r="G5" s="199">
         <f>G3*G4/1000000</f>
-        <v>158761.20338381795</v>
+        <v>157230.45462068202</v>
       </c>
       <c r="H5" s="199"/>
       <c r="I5" s="38"/>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="G23" s="184">
         <f>G3/(Data!C34*Data!E3/Common_Shares*Exchange_Rate)</f>
-        <v>12.341609314985082</v>
+        <v>12.222613598201885</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2403,7 +2403,7 @@
       </c>
       <c r="G24" s="179">
         <f>(Fin_Analysis!E86*G7)/G3</f>
-        <v>2.4636176686341896E-2</v>
+        <v>2.4876027147132048E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2435,7 +2435,7 @@
       </c>
       <c r="G26" s="179">
         <f>Fin_Analysis!E87*Exchange_Rate/G3</f>
-        <v>1.3774104972694438E-2</v>
+        <v>1.3908205546283206E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2463,16 +2463,16 @@
       </c>
       <c r="C29" s="166">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!E98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!E101,Fin_Analysis!E104))</f>
-        <v>6.2556863189332583</v>
+        <v>6.2626864160225901</v>
       </c>
       <c r="D29" s="165">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!F98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!F101,Fin_Analysis!F104))</f>
-        <v>10.388865327270885</v>
+        <v>10.400623961126312</v>
       </c>
       <c r="E29" s="94"/>
       <c r="F29" s="167">
         <f>IF(Fin_Analysis!C106="Profit",Fin_Analysis!D98,IF(Fin_Analysis!C106="Dividend",Fin_Analysis!D101,Fin_Analysis!D104))</f>
-        <v>8.3110922618167073</v>
+        <v>8.3204991689010495</v>
       </c>
       <c r="H29" s="94"/>
     </row>
@@ -8340,7 +8340,7 @@
       <c r="E91" s="211"/>
       <c r="F91" s="29">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>2.4636176686341896E-2</v>
+        <v>2.4876027147132048E-2</v>
       </c>
       <c r="H91" s="195"/>
     </row>
@@ -8361,7 +8361,7 @@
       </c>
       <c r="F92" s="193">
         <f>FV(F91,D92,0,-(E86/C92))</f>
-        <v>12.024002749495629</v>
+        <v>12.038082445089454</v>
       </c>
       <c r="H92" s="195"/>
     </row>
@@ -8392,15 +8392,15 @@
       </c>
       <c r="C95" s="102">
         <f>D95*Common_Shares/Data!E3</f>
-        <v>35135037.556260638</v>
+        <v>35176179.482437469</v>
       </c>
       <c r="D95" s="154">
         <f>PV(C92,D92,0,-F92)*Exchange_Rate</f>
-        <v>8.0334603750953466</v>
+        <v>8.0428672821796905</v>
       </c>
       <c r="E95" s="154">
         <f>PV(15%,D92,0,-F92)*Exchange_Rate</f>
-        <v>5.9780544322118985</v>
+        <v>5.9850545293012303</v>
       </c>
       <c r="H95" s="24"/>
     </row>
@@ -8444,19 +8444,19 @@
       </c>
       <c r="C98" s="102">
         <f>C95-C96+$C$97</f>
-        <v>36349284.756260641</v>
+        <v>36390426.682437472</v>
       </c>
       <c r="D98" s="124">
         <f>MAX(C98*Data!$E$3/Common_Shares,0)</f>
-        <v>8.3110922618167073</v>
+        <v>8.3204991689010495</v>
       </c>
       <c r="E98" s="124">
         <f>E95*Exchange_Rate-D96+D97</f>
-        <v>6.2556863189332583</v>
+        <v>6.2626864160225901</v>
       </c>
       <c r="F98" s="124">
         <f>D98*1.25</f>
-        <v>10.388865327270885</v>
+        <v>10.400623961126312</v>
       </c>
       <c r="H98" s="24"/>
     </row>
@@ -8530,19 +8530,19 @@
       </c>
       <c r="C104" s="102">
         <f>D104*Common_Shares/Data!E3</f>
-        <v>35258966.448442817</v>
+        <v>35279537.411531232</v>
       </c>
       <c r="D104" s="154">
         <f>(D98+D101)/2</f>
-        <v>8.0617961309083537</v>
+        <v>8.0664995844505256</v>
       </c>
       <c r="E104" s="124">
         <f>D104*(1-25%)</f>
-        <v>6.0463470981812648</v>
+        <v>6.0498746883378942</v>
       </c>
       <c r="F104" s="124">
         <f>D104*1.25</f>
-        <v>10.077245163635443</v>
+        <v>10.083124480563157</v>
       </c>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.4">

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED0175C-AF63-493E-98AA-4108D38DDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA628A91-8930-45EC-8625-5E87DC4921F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2344,8 +2344,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>35.950000762939503</v>
+        <v>34.150001525878906</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G5" s="239">
         <f>G3*G4/1000000</f>
-        <v>157230.45462068226</v>
+        <v>149358.00142586409</v>
       </c>
       <c r="H5" s="239"/>
       <c r="I5" s="38"/>
@@ -2536,7 +2536,7 @@
         <v>0.06</v>
       </c>
       <c r="D12" s="178">
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="F12" s="111"/>
     </row>
@@ -2582,7 +2582,7 @@
         <v>196</v>
       </c>
       <c r="C17" s="181">
-        <v>0.08</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D17" s="182"/>
     </row>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.0582167154578028E-2</v>
+        <v>3.219411078814375E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.3908205546283187E-2</v>
+        <v>1.4641287779185002E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2732,21 +2732,21 @@
         <v>180</v>
       </c>
       <c r="C29" s="131">
-        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>13.018572012727819</v>
+        <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
+        <v>9.7037792588870744</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>16.273215015909773</v>
+        <v>17.723688150419299</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="G29" s="238">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="H29" s="238"/>
     </row>
@@ -8523,7 +8523,7 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B89" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
@@ -10376,17 +10376,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86/Dashboard!G3</f>
-        <v>3.0358258242752179E-2</v>
+        <v>3.1958399947988492E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86/Dashboard!G3</f>
-        <v>3.0582167154578028E-2</v>
+        <v>3.219411078814375E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86/Dashboard!G3</f>
-        <v>3.0582167154578028E-2</v>
+        <v>3.219411078814375E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10427,17 +10427,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88/Dashboard!G3</f>
-        <v>2.2253128874053101E-2</v>
+        <v>2.3426060446696005E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88/Dashboard!G3</f>
-        <v>1.3908205546283187E-2</v>
+        <v>1.4641287779185002E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88/Dashboard!G3</f>
-        <v>1.3908205546283187E-2</v>
+        <v>1.4641287779185002E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10485,7 +10485,7 @@
       </c>
       <c r="C93" s="137">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>7.0000000000000007E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="D93" s="206">
         <v>5</v>
@@ -10495,14 +10495,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>18.259220707693988</v>
+        <v>19.517766158275933</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>18.259220707693988</v>
+        <v>19.517766158275933</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10520,14 +10520,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>7.653589292418248</v>
+        <v>8.1468312768805173</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>7.653589292418248</v>
+        <v>8.1468312768805173</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10567,19 +10567,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>56937856.818724491</v>
+        <v>62012873.130582199</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>9.0780597405422263</v>
+        <v>9.7037792588870744</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10624,23 +10624,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>56937856.818724491</v>
+        <v>62012873.130582199</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
-        <v>9.0780597405422263</v>
+        <v>9.7037792588870744</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+H99,0)</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>13.018572012727819</v>
+        <v>14.178950520335441</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>16.273215015909773</v>
+        <v>17.723688150419299</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10678,23 +10678,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>23866241.514754597</v>
+        <v>25884540.796961635</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>3.8051865377184533</v>
+        <v>4.0504149772654543</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>5.4569033889383993</v>
+        <v>5.9183779862753383</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>5.4569033889383993</v>
+        <v>5.9183779862753383</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>6.8211292361729994</v>
+        <v>7.3979724828441729</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10730,23 +10730,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>40402049.166739546</v>
+        <v>43948706.963771917</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>6.44162313913034</v>
+        <v>6.8770971180762643</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>9.2377377008331099</v>
+        <v>10.04866425330539</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>9.2377377008331099</v>
+        <v>10.04866425330539</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>11.547172126041387</v>
+        <v>12.560830316631737</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BA628A91-8930-45EC-8625-5E87DC4921F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AFF4C8-7B29-418C-8355-29E5F915F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="12690" windowHeight="7642" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>34.150001525878906</v>
+        <v>33</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G5" s="239">
         <f>G3*G4/1000000</f>
-        <v>149358.00142586409</v>
+        <v>144328.36974600001</v>
       </c>
       <c r="H5" s="239"/>
       <c r="I5" s="38"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.219411078814375E-2</v>
+        <v>3.3316028258770412E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.4641287779185002E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2733,20 +2733,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>9.7037792588870744</v>
+        <v>9.7566304205957355</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.723688150419299</v>
+        <v>17.820219355790016</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="G29" s="238">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="H29" s="238"/>
     </row>
@@ -10376,17 +10376,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86/Dashboard!G3</f>
-        <v>3.1958399947988492E-2</v>
+        <v>3.3072103242074401E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86/Dashboard!G3</f>
-        <v>3.219411078814375E-2</v>
+        <v>3.3316028258770412E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86/Dashboard!G3</f>
-        <v>3.219411078814375E-2</v>
+        <v>3.3316028258770412E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10427,17 +10427,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88/Dashboard!G3</f>
-        <v>2.3426060446696005E-2</v>
+        <v>2.4242424242424242E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88/Dashboard!G3</f>
-        <v>1.4641287779185002E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88/Dashboard!G3</f>
-        <v>1.4641287779185002E-2</v>
+        <v>1.5151515151515152E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10495,14 +10495,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>19.517766158275933</v>
+        <v>19.624068722246374</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>19.517766158275933</v>
+        <v>19.624068722246374</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10520,14 +10520,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>8.1468312768805173</v>
+        <v>8.1673356611429053</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>8.1468312768805173</v>
+        <v>8.1673356611429053</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10567,19 +10567,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>62012873.130582199</v>
+        <v>62350623.227570593</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>9.7037792588870744</v>
+        <v>9.7566304205957355</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10624,23 +10624,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62012873.130582199</v>
+        <v>62350623.227570593</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
-        <v>9.7037792588870744</v>
+        <v>9.7566304205957355</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+H99,0)</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.178950520335441</v>
+        <v>14.256175484632012</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>17.723688150419299</v>
+        <v>17.820219355790016</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10678,23 +10678,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>25884540.796961635</v>
+        <v>25949688.405021537</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>4.0504149772654543</v>
+        <v>4.0606092800923292</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>5.9183779862753383</v>
+        <v>5.9332736791301821</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>5.9183779862753383</v>
+        <v>5.9332736791301821</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>7.3979724828441729</v>
+        <v>7.4165920989127274</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10730,23 +10730,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>43948706.963771917</v>
+        <v>44150155.816296063</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>6.8770971180762643</v>
+        <v>6.9086198503440324</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>10.04866425330539</v>
+        <v>10.094724581881097</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>10.04866425330539</v>
+        <v>10.094724581881097</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>12.560830316631737</v>
+        <v>12.618405727351371</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32AFF4C8-7B29-418C-8355-29E5F915F6AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6F3C7E-B08B-4A01-A62A-46BD2D37AA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -2398,7 +2398,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>33</v>
+        <v>33.099998474121094</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="G5" s="239">
         <f>G3*G4/1000000</f>
-        <v>144328.36974600001</v>
+        <v>144765.72176863594</v>
       </c>
       <c r="H5" s="239"/>
       <c r="I5" s="38"/>
@@ -2669,7 +2669,7 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.3316028258770412E-2</v>
+        <v>3.3215377136618332E-2</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -2701,7 +2701,7 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5151515151515152E-2</v>
+        <v>1.5105740877629347E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2733,20 +2733,20 @@
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>9.7566304205957355</v>
+        <v>9.751879577273419</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.820219355790016</v>
+        <v>17.811542070038783</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="G29" s="238">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="H29" s="238"/>
     </row>
@@ -10376,17 +10376,17 @@
       </c>
       <c r="C87" s="165">
         <f>C86/Dashboard!G3</f>
-        <v>3.3072103242074401E-2</v>
+        <v>3.2972189042296769E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86/Dashboard!G3</f>
-        <v>3.3316028258770412E-2</v>
+        <v>3.3215377136618332E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86/Dashboard!G3</f>
-        <v>3.3316028258770412E-2</v>
+        <v>3.3215377136618332E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
@@ -10427,17 +10427,17 @@
       </c>
       <c r="C89" s="165">
         <f>C88/Dashboard!G3</f>
-        <v>2.4242424242424242E-2</v>
+        <v>2.4169185404206955E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88/Dashboard!G3</f>
-        <v>1.5151515151515152E-2</v>
+        <v>1.5105740877629347E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88/Dashboard!G3</f>
-        <v>1.5151515151515152E-2</v>
+        <v>1.5105740877629347E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
@@ -10495,14 +10495,14 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>19.624068722246374</v>
+        <v>19.614513079383347</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>19.624068722246374</v>
+        <v>19.614513079383347</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -10520,14 +10520,14 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>8.1673356611429053</v>
+        <v>8.165494457438502</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>8.1673356611429053</v>
+        <v>8.165494457438502</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -10567,19 +10567,19 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>62350623.227570593</v>
+        <v>62320262.536508895</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>9.7566304205957355</v>
+        <v>9.751879577273419</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
@@ -10624,23 +10624,23 @@
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62350623.227570593</v>
+        <v>62320262.536508895</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
-        <v>9.7566304205957355</v>
+        <v>9.751879577273419</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+H99,0)</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.256175484632012</v>
+        <v>14.249233656031027</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>17.820219355790016</v>
+        <v>17.811542070038783</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -10678,23 +10678,23 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>25949688.405021537</v>
+        <v>25943838.435777985</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>4.0606092800923292</v>
+        <v>4.0596938764455555</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>5.9332736791301821</v>
+        <v>5.9319361112952729</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>5.9332736791301821</v>
+        <v>5.9319361112952729</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>7.4165920989127274</v>
+        <v>7.4149201391190909</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -10730,23 +10730,23 @@
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>44150155.816296063</v>
+        <v>44132050.48614344</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>6.9086198503440324</v>
+        <v>6.9057867268594872</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>10.094724581881097</v>
+        <v>10.09058488366315</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>10.094724581881097</v>
+        <v>10.09058488366315</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>12.618405727351371</v>
+        <v>12.613231104578936</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
+++ b/financial_models/opportunities/0027.HK_Stock_Valuation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kamanl/PycharmProjects/Invest_Proc_v3/financial_models/opportunities/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6F3C7E-B08B-4A01-A62A-46BD2D37AA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3606F6F5-F67E-624F-9BFF-0B3ECECE8F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="740" windowWidth="12700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
     </ext>
@@ -890,18 +901,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="12">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
-    <numFmt numFmtId="178" formatCode="#,##0&quot;mm&quot;"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00&quot;x&quot;"/>
-    <numFmt numFmtId="180" formatCode="0.00\x"/>
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="182" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="183" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="185" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00;[Red]\-&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="166" formatCode="#,##0&quot;mm&quot;"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00&quot;x&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00\x"/>
+    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="&quot;in&quot;\ 0\ &quot;Months&quot;"/>
+    <numFmt numFmtId="172" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="173" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="174" formatCode="0&quot; Years&quot;"/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1362,7 +1373,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="253">
@@ -1418,8 +1429,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1442,14 +1453,14 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -1479,7 +1490,7 @@
     <xf numFmtId="10" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1584,7 +1595,7 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
@@ -1612,7 +1623,7 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,13 +1679,13 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1716,7 +1727,7 @@
     <xf numFmtId="10" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1749,16 +1760,16 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1779,7 +1790,7 @@
     <xf numFmtId="10" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1804,10 +1815,10 @@
     <xf numFmtId="3" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1816,10 +1827,10 @@
     <xf numFmtId="49" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="183" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1836,13 +1847,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="186" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1854,13 +1865,13 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="23" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1898,7 +1909,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="9" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1907,10 +1918,10 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="6" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="2" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1929,7 +1940,7 @@
     <xf numFmtId="2" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1943,7 +1954,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1956,20 +1967,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="18">
     <dxf>
@@ -2348,19 +2359,19 @@
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.796875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="14.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="8" width="14.796875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="14.83203125" style="1" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="87"/>
       <c r="C1" s="87"/>
       <c r="D1" s="87"/>
@@ -2369,7 +2380,7 @@
       <c r="G1" s="87"/>
       <c r="H1" s="87"/>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>0</v>
@@ -2384,7 +2395,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>211</v>
       </c>
@@ -2398,13 +2409,13 @@
         <v>1</v>
       </c>
       <c r="G3" s="133">
-        <v>33.099998474121094</v>
+        <v>32.599998474121094</v>
       </c>
       <c r="H3" s="135" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="35" t="s">
         <v>212</v>
       </c>
@@ -2424,7 +2435,7 @@
       <c r="H4" s="247"/>
       <c r="I4" s="39"/>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>175</v>
       </c>
@@ -2439,13 +2450,13 @@
       </c>
       <c r="G5" s="239">
         <f>G3*G4/1000000</f>
-        <v>144765.72176863594</v>
+        <v>142578.92828763594</v>
       </c>
       <c r="H5" s="239"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
@@ -2471,7 +2482,7 @@
       <c r="H6" s="240"/>
       <c r="I6" s="38"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="86" t="s">
         <v>209</v>
       </c>
@@ -2494,8 +2505,8 @@
         <v>HKD</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="140" t="s">
         <v>207</v>
       </c>
@@ -2503,7 +2514,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>190</v>
       </c>
@@ -2514,7 +2525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="123" t="s">
         <v>194</v>
       </c>
@@ -2528,7 +2539,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B12" s="87" t="s">
         <v>142</v>
       </c>
@@ -2540,8 +2551,8 @@
       </c>
       <c r="F12" s="111"/>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
         <v>191</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>202</v>
       </c>
@@ -2563,7 +2574,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="123" t="s">
         <v>203</v>
       </c>
@@ -2577,7 +2588,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B17" s="87" t="s">
         <v>196</v>
       </c>
@@ -2586,8 +2597,8 @@
       </c>
       <c r="D17" s="182"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="143" t="s">
         <v>199</v>
       </c>
@@ -2602,7 +2613,7 @@
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="138" t="s">
         <v>181</v>
       </c>
@@ -2614,10 +2625,10 @@
         <v>232</v>
       </c>
       <c r="G20" s="178">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="138" t="s">
         <v>182</v>
       </c>
@@ -2628,7 +2639,7 @@
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="138" t="s">
         <v>183</v>
       </c>
@@ -2640,7 +2651,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="138" t="s">
         <v>184</v>
       </c>
@@ -2656,7 +2667,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="138" t="s">
         <v>185</v>
       </c>
@@ -2669,10 +2680,10 @@
       </c>
       <c r="G24" s="184">
         <f>(Fin_Analysis!H86*G7)/G3</f>
-        <v>3.3215377136618332E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>3.3724815460104543E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="138" t="s">
         <v>208</v>
       </c>
@@ -2688,7 +2699,7 @@
         <v>0.45478155540723947</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="139" t="s">
         <v>187</v>
       </c>
@@ -2701,11 +2712,11 @@
       </c>
       <c r="G26" s="184">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>1.5105740877629347E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <v>1.533742403076846E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
         <v>7</v>
@@ -2727,923 +2738,923 @@
       </c>
       <c r="H28" s="237"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="87" t="s">
         <v>180</v>
       </c>
       <c r="C29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!E100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!E103,Fin_Analysis!E106))</f>
-        <v>9.751879577273419</v>
+        <v>6.4431444970098211</v>
       </c>
       <c r="D29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>17.811542070038783</v>
+        <v>17.855496286660369</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="132">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="G29" s="238">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!H100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!H103,Fin_Analysis!H106))</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="H29" s="238"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="G28:H28"/>
@@ -3709,20 +3720,20 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="3.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="13" width="24.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B4" s="142" t="s">
         <v>211</v>
       </c>
@@ -3733,7 +3744,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="B5" s="142" t="s">
         <v>212</v>
       </c>
@@ -3749,7 +3760,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B6" s="142" t="s">
         <v>175</v>
       </c>
@@ -3763,7 +3774,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B7" s="141" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3782,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B8" s="141" t="s">
         <v>237</v>
       </c>
@@ -3779,7 +3790,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B9" s="141" t="s">
         <v>238</v>
       </c>
@@ -3787,7 +3798,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B10" s="141" t="s">
         <v>239</v>
       </c>
@@ -3795,7 +3806,7 @@
         <v>4373586962</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B11" s="141" t="s">
         <v>240</v>
       </c>
@@ -3803,7 +3814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="227" t="s">
         <v>10</v>
       </c>
@@ -3811,7 +3822,7 @@
         <v>45291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="227" t="s">
         <v>11</v>
       </c>
@@ -3819,7 +3830,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="227" t="s">
         <v>242</v>
       </c>
@@ -3827,7 +3838,7 @@
         <v>45473</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="227" t="s">
         <v>241</v>
       </c>
@@ -3835,7 +3846,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="234" t="s">
         <v>98</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>0.23499999999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B18" s="116" t="s">
         <v>144</v>
       </c>
@@ -3892,7 +3903,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B19" s="94" t="s">
         <v>12</v>
       </c>
@@ -3912,7 +3923,7 @@
       <c r="L19" s="152"/>
       <c r="M19" s="152"/>
     </row>
-    <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B20" s="97" t="s">
         <v>109</v>
       </c>
@@ -3932,7 +3943,7 @@
       <c r="L20" s="153"/>
       <c r="M20" s="153"/>
     </row>
-    <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B21" s="97" t="s">
         <v>107</v>
       </c>
@@ -3952,7 +3963,7 @@
       <c r="L21" s="153"/>
       <c r="M21" s="153"/>
     </row>
-    <row r="22" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B22" s="97" t="s">
         <v>108</v>
       </c>
@@ -3968,7 +3979,7 @@
       <c r="L22" s="153"/>
       <c r="M22" s="153"/>
     </row>
-    <row r="23" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B23" s="97" t="s">
         <v>110</v>
       </c>
@@ -3984,7 +3995,7 @@
       <c r="L23" s="153"/>
       <c r="M23" s="153"/>
     </row>
-    <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B24" s="97" t="s">
         <v>111</v>
       </c>
@@ -4000,7 +4011,7 @@
       <c r="L24" s="153"/>
       <c r="M24" s="153"/>
     </row>
-    <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B25" s="97" t="s">
         <v>113</v>
       </c>
@@ -4016,7 +4027,7 @@
       <c r="L25" s="153"/>
       <c r="M25" s="153"/>
     </row>
-    <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B26" s="97" t="s">
         <v>129</v>
       </c>
@@ -4032,7 +4043,7 @@
       <c r="L26" s="153"/>
       <c r="M26" s="153"/>
     </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B27" s="99" t="s">
         <v>114</v>
       </c>
@@ -4052,7 +4063,7 @@
       <c r="L27" s="153"/>
       <c r="M27" s="153"/>
     </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B28" s="94" t="s">
         <v>15</v>
       </c>
@@ -4068,7 +4079,7 @@
       <c r="L28" s="153"/>
       <c r="M28" s="153"/>
     </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B29" s="94" t="s">
         <v>121</v>
       </c>
@@ -4084,7 +4095,7 @@
       <c r="L29" s="153"/>
       <c r="M29" s="153"/>
     </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B30" s="94" t="s">
         <v>159</v>
       </c>
@@ -4100,7 +4111,7 @@
       <c r="L30" s="153"/>
       <c r="M30" s="153"/>
     </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B31" s="94" t="s">
         <v>16</v>
       </c>
@@ -4116,7 +4127,7 @@
       <c r="L31" s="153"/>
       <c r="M31" s="153"/>
     </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B32" s="94" t="s">
         <v>120</v>
       </c>
@@ -4132,7 +4143,7 @@
       <c r="L32" s="153"/>
       <c r="M32" s="153"/>
     </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B33" s="94" t="s">
         <v>17</v>
       </c>
@@ -4148,7 +4159,7 @@
       <c r="L33" s="153"/>
       <c r="M33" s="153"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B34" s="94" t="s">
         <v>18</v>
       </c>
@@ -4164,7 +4175,7 @@
       <c r="L34" s="153"/>
       <c r="M34" s="153"/>
     </row>
-    <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B35" s="94" t="s">
         <v>148</v>
       </c>
@@ -4180,7 +4191,7 @@
       <c r="L35" s="153"/>
       <c r="M35" s="153"/>
     </row>
-    <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B36" s="94" t="s">
         <v>149</v>
       </c>
@@ -4196,7 +4207,7 @@
       <c r="L36" s="153"/>
       <c r="M36" s="153"/>
     </row>
-    <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:13" ht="15" x14ac:dyDescent="0.15">
       <c r="B37" s="94" t="s">
         <v>147</v>
       </c>
@@ -4212,7 +4223,7 @@
       <c r="L37" s="153"/>
       <c r="M37" s="153"/>
     </row>
-    <row r="39" spans="2:13" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="203" t="s">
         <v>33</v>
       </c>
@@ -4223,7 +4234,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>38</v>
       </c>
@@ -4232,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B41" s="1" t="s">
         <v>146</v>
       </c>
@@ -4241,7 +4252,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>121</v>
       </c>
@@ -4250,7 +4261,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
@@ -4259,7 +4270,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
@@ -4268,7 +4279,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>170</v>
       </c>
@@ -4277,7 +4288,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="46" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>122</v>
       </c>
@@ -4286,7 +4297,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>47</v>
       </c>
@@ -4295,7 +4306,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:13" ht="14" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>48</v>
       </c>
@@ -4304,7 +4315,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>124</v>
       </c>
@@ -4313,7 +4324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B50" s="3" t="s">
         <v>50</v>
       </c>
@@ -4322,7 +4333,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="35" t="s">
         <v>51</v>
       </c>
@@ -4331,7 +4342,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>61</v>
       </c>
@@ -4340,7 +4351,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>63</v>
       </c>
@@ -4349,7 +4360,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B54" s="3" t="s">
         <v>65</v>
       </c>
@@ -4358,7 +4369,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="1" t="s">
         <v>171</v>
       </c>
@@ -4367,7 +4378,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="3" t="s">
         <v>68</v>
       </c>
@@ -4376,7 +4387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="3" t="s">
         <v>70</v>
       </c>
@@ -4385,7 +4396,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
@@ -4394,7 +4405,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -4403,7 +4414,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="3" t="s">
         <v>123</v>
       </c>
@@ -4412,7 +4423,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B61" s="3" t="s">
         <v>73</v>
       </c>
@@ -4421,7 +4432,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="3" t="s">
         <v>74</v>
       </c>
@@ -4430,7 +4441,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="3" t="s">
         <v>75</v>
       </c>
@@ -4439,7 +4450,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:4" ht="14" x14ac:dyDescent="0.15">
       <c r="B64" s="3" t="s">
         <v>76</v>
       </c>
@@ -4448,100 +4459,100 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:3" ht="13.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B65" s="203" t="s">
         <v>37</v>
       </c>
       <c r="C65" s="201"/>
     </row>
-    <row r="66" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C66" s="59"/>
     </row>
-    <row r="67" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C67" s="59"/>
     </row>
-    <row r="68" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C68" s="59"/>
     </row>
-    <row r="69" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B69" s="86" t="s">
         <v>43</v>
       </c>
       <c r="C69" s="121"/>
     </row>
-    <row r="70" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B70" s="80" t="s">
         <v>16</v>
       </c>
       <c r="C70" s="83"/>
     </row>
-    <row r="71" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B71" s="3" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59"/>
     </row>
-    <row r="72" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B72" s="3" t="s">
         <v>64</v>
       </c>
       <c r="C72" s="59"/>
     </row>
-    <row r="73" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B73" s="3" t="s">
         <v>66</v>
       </c>
       <c r="C73" s="59"/>
     </row>
-    <row r="74" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B74" s="86" t="s">
         <v>67</v>
       </c>
       <c r="C74" s="121"/>
     </row>
-    <row r="75" spans="2:3" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B75" s="80" t="s">
         <v>85</v>
       </c>
       <c r="C75" s="83"/>
     </row>
-    <row r="76" spans="2:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:3" ht="15" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B76" s="73" t="s">
         <v>243</v>
       </c>
       <c r="C76" s="59"/>
     </row>
-    <row r="77" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B77" s="20" t="s">
         <v>91</v>
       </c>
       <c r="C77" s="59"/>
     </row>
-    <row r="78" spans="2:3" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:3" ht="14" x14ac:dyDescent="0.15">
       <c r="B78" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C78" s="59"/>
     </row>
-    <row r="81" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B81" s="20"/>
     </row>
-    <row r="85" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B85" s="20"/>
     </row>
-    <row r="86" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B86" s="20"/>
     </row>
-    <row r="87" spans="2:2" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:2" ht="14" x14ac:dyDescent="0.15">
       <c r="B87" s="20"/>
     </row>
   </sheetData>
@@ -4591,7 +4602,7 @@
       <selection pane="topRight" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="26.33203125" style="1" customWidth="1"/>
@@ -4599,7 +4610,7 @@
     <col min="14" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13"/>
       <c r="B1" s="14"/>
       <c r="C1" s="15"/>
@@ -4607,7 +4618,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
         <v>9</v>
@@ -4632,7 +4643,7 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4"/>
       <c r="B3" s="104" t="s">
         <v>10</v>
@@ -4661,7 +4672,7 @@
       <c r="L3" s="87"/>
       <c r="M3" s="87"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4"/>
       <c r="B4" s="104" t="s">
         <v>11</v>
@@ -4683,7 +4694,7 @@
       </c>
       <c r="J4" s="87"/>
     </row>
-    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="16"/>
       <c r="B5" s="116" t="s">
         <v>144</v>
@@ -4733,7 +4744,7 @@
         <v>41639</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
         <v>12</v>
@@ -4784,7 +4795,7 @@
       </c>
       <c r="N6" s="87"/>
     </row>
-    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
         <v>13</v>
@@ -4835,7 +4846,7 @@
       </c>
       <c r="N7" s="87"/>
     </row>
-    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
         <v>109</v>
@@ -4886,7 +4897,7 @@
       </c>
       <c r="N8" s="87"/>
     </row>
-    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
         <v>105</v>
@@ -4937,7 +4948,7 @@
       </c>
       <c r="N9" s="87"/>
     </row>
-    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
         <v>107</v>
@@ -4988,7 +4999,7 @@
       </c>
       <c r="N10" s="87"/>
     </row>
-    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="94" t="s">
         <v>100</v>
@@ -5039,7 +5050,7 @@
       </c>
       <c r="N11" s="87"/>
     </row>
-    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="97" t="s">
         <v>108</v>
@@ -5090,7 +5101,7 @@
       </c>
       <c r="N12" s="87"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="98" t="s">
         <v>106</v>
@@ -5141,7 +5152,7 @@
       </c>
       <c r="N13" s="87"/>
     </row>
-    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="97" t="s">
         <v>110</v>
@@ -5192,7 +5203,7 @@
       </c>
       <c r="N14" s="87"/>
     </row>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="97" t="s">
         <v>111</v>
@@ -5243,7 +5254,7 @@
       </c>
       <c r="N15" s="87"/>
     </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
         <v>113</v>
@@ -5294,7 +5305,7 @@
       </c>
       <c r="N16" s="87"/>
     </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
         <v>129</v>
@@ -5345,7 +5356,7 @@
       </c>
       <c r="N17" s="87"/>
     </row>
-    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="99" t="s">
         <v>114</v>
@@ -5396,7 +5407,7 @@
       </c>
       <c r="N18" s="87"/>
     </row>
-    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="99" t="s">
         <v>216</v>
@@ -5447,7 +5458,7 @@
       </c>
       <c r="N19" s="87"/>
     </row>
-    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="4"/>
       <c r="B20" s="99" t="s">
         <v>217</v>
@@ -5498,7 +5509,7 @@
       </c>
       <c r="N20" s="87"/>
     </row>
-    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="4"/>
       <c r="B21" s="94" t="s">
         <v>115</v>
@@ -5549,7 +5560,7 @@
       </c>
       <c r="N21" s="87"/>
     </row>
-    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
         <v>116</v>
@@ -5600,7 +5611,7 @@
       </c>
       <c r="N22" s="87"/>
     </row>
-    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
         <v>117</v>
@@ -5651,7 +5662,7 @@
       </c>
       <c r="N23" s="87"/>
     </row>
-    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="4"/>
       <c r="B24" s="102" t="s">
         <v>118</v>
@@ -5702,7 +5713,7 @@
       </c>
       <c r="N24" s="87"/>
     </row>
-    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="101" t="s">
         <v>138</v>
@@ -5753,7 +5764,7 @@
       </c>
       <c r="N25" s="87"/>
     </row>
-    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A26" s="16"/>
       <c r="B26" s="115" t="s">
         <v>145</v>
@@ -5804,7 +5815,7 @@
       </c>
       <c r="N26" s="87"/>
     </row>
-    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
         <v>14</v>
@@ -5855,7 +5866,7 @@
       </c>
       <c r="N27" s="87"/>
     </row>
-    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
         <v>15</v>
@@ -5906,7 +5917,7 @@
       </c>
       <c r="N28" s="87"/>
     </row>
-    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
         <v>121</v>
@@ -5957,7 +5968,7 @@
       </c>
       <c r="N29" s="87"/>
     </row>
-    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
         <v>159</v>
@@ -6008,7 +6019,7 @@
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
         <v>16</v>
@@ -6059,7 +6070,7 @@
       </c>
       <c r="N31" s="87"/>
     </row>
-    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
         <v>120</v>
@@ -6110,7 +6121,7 @@
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
         <v>17</v>
@@ -6161,7 +6172,7 @@
       </c>
       <c r="N33" s="87"/>
     </row>
-    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
         <v>18</v>
@@ -6212,7 +6223,7 @@
       </c>
       <c r="N34" s="87"/>
     </row>
-    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
         <v>19</v>
@@ -6263,7 +6274,7 @@
       </c>
       <c r="N35" s="87"/>
     </row>
-    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
         <v>148</v>
@@ -6314,7 +6325,7 @@
       </c>
       <c r="N36" s="87"/>
     </row>
-    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
         <v>149</v>
@@ -6365,7 +6376,7 @@
       </c>
       <c r="N37" s="87"/>
     </row>
-    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
         <v>147</v>
@@ -6416,7 +6427,7 @@
       </c>
       <c r="N38" s="87"/>
     </row>
-    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
         <v>151</v>
@@ -6467,7 +6478,7 @@
       </c>
       <c r="N39" s="87"/>
     </row>
-    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
         <v>169</v>
@@ -6518,7 +6529,7 @@
       </c>
       <c r="N40" s="87"/>
     </row>
-    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
         <v>132</v>
@@ -6536,7 +6547,7 @@
       <c r="M41" s="54"/>
       <c r="N41" s="87"/>
     </row>
-    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
         <v>99</v>
@@ -6587,7 +6598,7 @@
       </c>
       <c r="N42" s="87"/>
     </row>
-    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
         <v>126</v>
@@ -6638,7 +6649,7 @@
       </c>
       <c r="N43" s="87"/>
     </row>
-    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
         <v>101</v>
@@ -6689,7 +6700,7 @@
       </c>
       <c r="N44" s="87"/>
     </row>
-    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
         <v>112</v>
@@ -6740,7 +6751,7 @@
       </c>
       <c r="N45" s="87"/>
     </row>
-    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
         <v>127</v>
@@ -6791,7 +6802,7 @@
       </c>
       <c r="N46" s="87"/>
     </row>
-    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
         <v>139</v>
@@ -6842,7 +6853,7 @@
       </c>
       <c r="N47" s="87"/>
     </row>
-    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
         <v>130</v>
@@ -6893,7 +6904,7 @@
       </c>
       <c r="N48" s="87"/>
     </row>
-    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="16"/>
       <c r="B49" s="103" t="s">
         <v>160</v>
@@ -6911,7 +6922,7 @@
       <c r="M49" s="36"/>
       <c r="N49" s="87"/>
     </row>
-    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="4"/>
       <c r="B50" s="95" t="s">
         <v>157</v>
@@ -6962,7 +6973,7 @@
       </c>
       <c r="N50" s="87"/>
     </row>
-    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
         <v>158</v>
@@ -7013,7 +7024,7 @@
       </c>
       <c r="N51" s="87"/>
     </row>
-    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="16"/>
       <c r="B52" s="103" t="s">
         <v>131</v>
@@ -7030,7 +7041,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="36"/>
     </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
         <v>20</v>
@@ -7080,7 +7091,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="4"/>
       <c r="B54" s="94" t="s">
         <v>125</v>
@@ -7130,7 +7141,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="4"/>
       <c r="B55" s="94" t="s">
         <v>128</v>
@@ -7180,7 +7191,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="4"/>
       <c r="B56" s="98" t="s">
         <v>21</v>
@@ -7230,1260 +7241,1260 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="4"/>
     </row>
-    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="4"/>
     </row>
-    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="4"/>
     </row>
-    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="4"/>
     </row>
-    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
-    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
-    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="4"/>
     </row>
-    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="4"/>
     </row>
-    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="4"/>
     </row>
-    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="4"/>
     </row>
-    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="4"/>
     </row>
-    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="4"/>
     </row>
-    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="4"/>
     </row>
-    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="4"/>
     </row>
-    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4"/>
     </row>
-    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4"/>
     </row>
-    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4"/>
     </row>
-    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4"/>
     </row>
-    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4"/>
     </row>
-    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4"/>
     </row>
-    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="4"/>
     </row>
-    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="4"/>
     </row>
-    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="4"/>
     </row>
-    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="4"/>
     </row>
-    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="4"/>
     </row>
-    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="4"/>
     </row>
-    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="4"/>
     </row>
-    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="4"/>
     </row>
-    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="4"/>
     </row>
-    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="4"/>
     </row>
-    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="4"/>
     </row>
-    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="4"/>
     </row>
-    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="4"/>
     </row>
-    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="4"/>
     </row>
-    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="4"/>
     </row>
-    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="4"/>
     </row>
-    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="4"/>
     </row>
-    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="4"/>
     </row>
-    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="4"/>
     </row>
-    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="4"/>
     </row>
-    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="4"/>
     </row>
-    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="4"/>
     </row>
-    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="4"/>
     </row>
-    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="4"/>
     </row>
-    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="4"/>
     </row>
-    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="4"/>
     </row>
-    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="4"/>
     </row>
-    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="4"/>
     </row>
-    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="4"/>
     </row>
-    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="4"/>
     </row>
-    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="4"/>
     </row>
-    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="4"/>
     </row>
-    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="4"/>
     </row>
-    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="4"/>
     </row>
-    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="4"/>
     </row>
-    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="4"/>
     </row>
-    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="4"/>
     </row>
-    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="4"/>
     </row>
-    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="4"/>
     </row>
-    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="4"/>
     </row>
-    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="4"/>
     </row>
-    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="4"/>
     </row>
-    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="4"/>
     </row>
-    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="4"/>
     </row>
-    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="4"/>
     </row>
-    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="4"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="4"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="4"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="4"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="4"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="4"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="4"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="4"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="4"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="4"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="4"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="4"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="4"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="4"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="4"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="4"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="4"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="4"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="4"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="4"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="4"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="4"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="4"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="4"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="4"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="4"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="4"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="4"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="4"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="4"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="4"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="4"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="4"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="4"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="4"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="4"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="4"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="4"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="4"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="4"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="4"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="4"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="4"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="4"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="4"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="4"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="4"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="4"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="4"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="4"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="4"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="4"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="4"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="4"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="4"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -8527,7 +8538,7 @@
       <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
@@ -8535,11 +8546,11 @@
     <col min="7" max="7" width="2" style="1" customWidth="1"/>
     <col min="8" max="9" width="18.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="38.796875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="38.83203125" style="1" customWidth="1"/>
     <col min="12" max="16384" width="12.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
         <v>22</v>
@@ -8555,7 +8566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
@@ -8579,7 +8590,7 @@
       </c>
       <c r="K3" s="24"/>
     </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>25</v>
       </c>
@@ -8595,7 +8606,7 @@
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
       <c r="E5" s="11" t="s">
@@ -8610,7 +8621,7 @@
       </c>
       <c r="K5" s="24"/>
     </row>
-    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>27</v>
       </c>
@@ -8635,7 +8646,7 @@
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B7" s="19" t="s">
         <v>29</v>
       </c>
@@ -8658,13 +8669,13 @@
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C8" s="87"/>
       <c r="D8" s="87"/>
       <c r="E8" s="87"/>
       <c r="K8" s="24"/>
     </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
         <v>32</v>
@@ -8684,7 +8695,7 @@
       <c r="I9" s="86"/>
       <c r="K9" s="24"/>
     </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -8709,7 +8720,7 @@
       </c>
       <c r="K10" s="24"/>
     </row>
-    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3" t="s">
         <v>38</v>
       </c>
@@ -8737,7 +8748,7 @@
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
     </row>
-    <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B12" s="1" t="s">
         <v>146</v>
       </c>
@@ -8765,7 +8776,7 @@
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
     </row>
-    <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>121</v>
       </c>
@@ -8793,7 +8804,7 @@
       <c r="J13" s="87"/>
       <c r="K13" s="26"/>
     </row>
-    <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
@@ -8821,7 +8832,7 @@
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>44</v>
       </c>
@@ -8848,7 +8859,7 @@
       </c>
       <c r="J15" s="87"/>
     </row>
-    <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>170</v>
       </c>
@@ -8870,7 +8881,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="87"/>
     </row>
-    <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B17" s="3" t="s">
         <v>122</v>
       </c>
@@ -8892,7 +8903,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="87"/>
     </row>
-    <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B18" s="3" t="s">
         <v>47</v>
       </c>
@@ -8913,7 +8924,7 @@
       <c r="H18" s="87"/>
       <c r="I18" s="87"/>
     </row>
-    <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>48</v>
       </c>
@@ -8937,7 +8948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B20" s="3" t="s">
         <v>124</v>
       </c>
@@ -8963,7 +8974,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="40"/>
     </row>
-    <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>50</v>
       </c>
@@ -8984,7 +8995,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
-    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3" t="s">
         <v>51</v>
       </c>
@@ -9010,7 +9021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C23" s="87"/>
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
@@ -9019,7 +9030,7 @@
       </c>
       <c r="G23" s="87"/>
     </row>
-    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="23" t="s">
         <v>53</v>
       </c>
@@ -9041,7 +9052,7 @@
       </c>
       <c r="G24" s="87"/>
     </row>
-    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="23" t="s">
         <v>55</v>
       </c>
@@ -9070,7 +9081,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="23" t="s">
         <v>57</v>
       </c>
@@ -9103,7 +9114,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="23" t="s">
         <v>59</v>
       </c>
@@ -9136,7 +9147,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="78" t="s">
         <v>15</v>
       </c>
@@ -9166,7 +9177,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C29" s="87"/>
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
@@ -9178,7 +9189,7 @@
       <c r="I29" s="87"/>
       <c r="J29" s="87"/>
     </row>
-    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>61</v>
       </c>
@@ -9204,7 +9215,7 @@
       </c>
       <c r="J30" s="87"/>
     </row>
-    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>63</v>
       </c>
@@ -9231,7 +9242,7 @@
       </c>
       <c r="J31" s="87"/>
     </row>
-    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>65</v>
       </c>
@@ -9258,7 +9269,7 @@
       </c>
       <c r="J32" s="87"/>
     </row>
-    <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>171</v>
       </c>
@@ -9288,7 +9299,7 @@
       </c>
       <c r="J33" s="87"/>
     </row>
-    <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>68</v>
       </c>
@@ -9315,7 +9326,7 @@
       </c>
       <c r="J34" s="87"/>
     </row>
-    <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>70</v>
       </c>
@@ -9340,7 +9351,7 @@
       </c>
       <c r="J35" s="87"/>
     </row>
-    <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>72</v>
       </c>
@@ -9366,7 +9377,7 @@
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
     </row>
-    <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>49</v>
       </c>
@@ -9392,7 +9403,7 @@
       <c r="H37" s="87"/>
       <c r="I37" s="87"/>
     </row>
-    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="3" t="s">
         <v>123</v>
       </c>
@@ -9413,7 +9424,7 @@
       <c r="H38" s="87"/>
       <c r="I38" s="87"/>
     </row>
-    <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:10" ht="14" x14ac:dyDescent="0.15">
       <c r="B39" s="3" t="s">
         <v>73</v>
       </c>
@@ -9434,7 +9445,7 @@
       <c r="H39" s="87"/>
       <c r="I39" s="87"/>
     </row>
-    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="3" t="s">
         <v>74</v>
       </c>
@@ -9455,7 +9466,7 @@
       <c r="H40" s="87"/>
       <c r="I40" s="87"/>
     </row>
-    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="3" t="s">
         <v>75</v>
       </c>
@@ -9476,7 +9487,7 @@
       <c r="H41" s="87"/>
       <c r="I41" s="87"/>
     </row>
-    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="3" t="s">
         <v>76</v>
       </c>
@@ -9502,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C43" s="87"/>
       <c r="D43" s="87"/>
       <c r="E43" s="87"/>
@@ -9511,7 +9522,7 @@
       <c r="H43" s="87"/>
       <c r="I43" s="87"/>
     </row>
-    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="23" t="s">
         <v>77</v>
       </c>
@@ -9530,7 +9541,7 @@
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
     </row>
-    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="23" t="s">
         <v>79</v>
       </c>
@@ -9549,7 +9560,7 @@
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
     </row>
-    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="23" t="s">
         <v>80</v>
       </c>
@@ -9579,7 +9590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="23" t="s">
         <v>82</v>
       </c>
@@ -9609,7 +9620,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B48" s="80" t="s">
         <v>84</v>
       </c>
@@ -9636,7 +9647,7 @@
       </c>
       <c r="J48" s="8"/>
     </row>
-    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B49" s="3" t="s">
         <v>14</v>
       </c>
@@ -9663,20 +9674,20 @@
       </c>
       <c r="J49" s="87"/>
     </row>
-    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C50" s="87"/>
       <c r="D50" s="87"/>
       <c r="E50" s="87"/>
       <c r="I50" s="87"/>
     </row>
-    <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B51" s="10" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B52" s="44" t="s">
         <v>88</v>
       </c>
@@ -9693,7 +9704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B53" s="3" t="s">
         <v>89</v>
       </c>
@@ -9714,7 +9725,7 @@
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
-    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C54" s="87"/>
       <c r="D54" s="87"/>
       <c r="E54" s="87"/>
@@ -9723,7 +9734,7 @@
       <c r="I54" s="87"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B55" s="25" t="s">
         <v>161</v>
       </c>
@@ -9734,7 +9745,7 @@
       <c r="I55" s="87"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B56" s="20" t="s">
         <v>90</v>
       </c>
@@ -9749,7 +9760,7 @@
       <c r="I56" s="56"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B57" s="20" t="s">
         <v>91</v>
       </c>
@@ -9765,7 +9776,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="20" t="s">
         <v>93</v>
       </c>
@@ -9780,7 +9791,7 @@
       <c r="I58" s="87"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C59" s="87"/>
       <c r="D59" s="87"/>
       <c r="E59" s="87"/>
@@ -9789,7 +9800,7 @@
       <c r="I59" s="87"/>
       <c r="K59" s="33"/>
     </row>
-    <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B60" s="25" t="s">
         <v>164</v>
       </c>
@@ -9803,7 +9814,7 @@
       <c r="I60" s="87"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="19" t="s">
         <v>95</v>
       </c>
@@ -9824,7 +9835,7 @@
       <c r="I61" s="87"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B62" s="35" t="s">
         <v>150</v>
       </c>
@@ -9845,7 +9856,7 @@
       <c r="I62" s="87"/>
       <c r="K62" s="33"/>
     </row>
-    <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B63" s="19" t="s">
         <v>152</v>
       </c>
@@ -9866,7 +9877,7 @@
       <c r="I63" s="87"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="122" t="s">
         <v>162</v>
       </c>
@@ -9881,7 +9892,7 @@
       <c r="I64" s="87"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B65" s="3" t="s">
         <v>153</v>
       </c>
@@ -9902,7 +9913,7 @@
       <c r="I65" s="87"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B66" s="3"/>
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
@@ -9912,7 +9923,7 @@
       <c r="I66" s="87"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B67" s="25" t="s">
         <v>165</v>
       </c>
@@ -9926,7 +9937,7 @@
       <c r="I67" s="87"/>
       <c r="K67" s="33"/>
     </row>
-    <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" ht="14" x14ac:dyDescent="0.15">
       <c r="B68" s="19" t="s">
         <v>151</v>
       </c>
@@ -9947,7 +9958,7 @@
       <c r="I68" s="87"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:11" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="122" t="s">
         <v>163</v>
       </c>
@@ -9962,7 +9973,7 @@
       <c r="I69" s="87"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B70" s="19" t="s">
         <v>154</v>
       </c>
@@ -9983,7 +9994,7 @@
       <c r="I70" s="87"/>
       <c r="K70" s="33"/>
     </row>
-    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="5"/>
       <c r="B72" s="107" t="s">
         <v>137</v>
@@ -10005,7 +10016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="12" t="str">
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
@@ -10024,7 +10035,7 @@
       <c r="I73" s="250"/>
       <c r="K73" s="24"/>
     </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="3" t="s">
         <v>136</v>
       </c>
@@ -10045,7 +10056,7 @@
       <c r="I74" s="218"/>
       <c r="K74" s="24"/>
     </row>
-    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B75" s="105" t="s">
         <v>109</v>
       </c>
@@ -10075,7 +10086,7 @@
       </c>
       <c r="K75" s="24"/>
     </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B76" s="35" t="s">
         <v>96</v>
       </c>
@@ -10096,7 +10107,7 @@
       <c r="I76" s="219"/>
       <c r="K76" s="24"/>
     </row>
-    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="105" t="s">
         <v>133</v>
       </c>
@@ -10126,7 +10137,7 @@
       </c>
       <c r="K77" s="24"/>
     </row>
-    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B78" s="35" t="s">
         <v>97</v>
       </c>
@@ -10147,7 +10158,7 @@
       <c r="I78" s="219"/>
       <c r="K78" s="24"/>
     </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B79" s="105" t="s">
         <v>129</v>
       </c>
@@ -10177,7 +10188,7 @@
       </c>
       <c r="K79" s="24"/>
     </row>
-    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B80" s="28" t="s">
         <v>135</v>
       </c>
@@ -10207,7 +10218,7 @@
       </c>
       <c r="K80" s="24"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B81" s="28" t="s">
         <v>113</v>
       </c>
@@ -10239,7 +10250,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B82" s="73" t="s">
         <v>186</v>
       </c>
@@ -10268,7 +10279,7 @@
       </c>
       <c r="K82" s="24"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B83" s="106" t="s">
         <v>134</v>
       </c>
@@ -10298,7 +10309,7 @@
       </c>
       <c r="K83" s="24"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B84" s="28" t="s">
         <v>98</v>
       </c>
@@ -10319,7 +10330,7 @@
       </c>
       <c r="K84" s="24"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B85" s="86" t="s">
         <v>176</v>
       </c>
@@ -10349,7 +10360,7 @@
       </c>
       <c r="K85" s="24"/>
     </row>
-    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="87" t="s">
         <v>172</v>
       </c>
@@ -10370,28 +10381,28 @@
       <c r="I86" s="218"/>
       <c r="K86" s="24"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="87" t="s">
         <v>228</v>
       </c>
       <c r="C87" s="165">
         <f>C86/Dashboard!G3</f>
-        <v>3.2972189042296769E-2</v>
+        <v>3.3477897486861127E-2</v>
       </c>
       <c r="D87" s="218"/>
       <c r="E87" s="165">
         <f>E86/Dashboard!G3</f>
-        <v>3.3215377136618332E-2</v>
+        <v>3.3724815460104543E-2</v>
       </c>
       <c r="F87" s="218"/>
       <c r="H87" s="165">
         <f>H86/Dashboard!G3</f>
-        <v>3.3215377136618332E-2</v>
+        <v>3.3724815460104543E-2</v>
       </c>
       <c r="I87" s="218"/>
       <c r="K87" s="24"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B88" s="86" t="s">
         <v>227</v>
       </c>
@@ -10421,32 +10432,32 @@
       </c>
       <c r="K88" s="24"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B89" s="87" t="s">
         <v>229</v>
       </c>
       <c r="C89" s="165">
         <f>C88/Dashboard!G3</f>
-        <v>2.4169185404206955E-2</v>
+        <v>2.4539878449229537E-2</v>
       </c>
       <c r="D89" s="218"/>
       <c r="E89" s="165">
         <f>E88/Dashboard!G3</f>
-        <v>1.5105740877629347E-2</v>
+        <v>1.533742403076846E-2</v>
       </c>
       <c r="F89" s="218"/>
       <c r="H89" s="165">
         <f>H88/Dashboard!G3</f>
-        <v>1.5105740877629347E-2</v>
+        <v>1.533742403076846E-2</v>
       </c>
       <c r="I89" s="218"/>
       <c r="K89" s="24"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B90" s="28"/>
       <c r="C90" s="88"/>
     </row>
-    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="5"/>
       <c r="B91" s="107" t="s">
         <v>166</v>
@@ -10456,7 +10467,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B92" s="10" t="s">
         <v>167</v>
       </c>
@@ -10478,7 +10489,7 @@
       <c r="I92" s="249"/>
       <c r="K92" s="24"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B93" s="1" t="str">
         <f>C92&amp;" Required Return"</f>
         <v>HK Required Return</v>
@@ -10495,24 +10506,24 @@
       </c>
       <c r="F93" s="146">
         <f>FV(E87,D93,0,-(E86/C93))</f>
-        <v>19.614513079383347</v>
+        <v>19.662916555816103</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>230</v>
       </c>
       <c r="I93" s="146">
         <f>FV(H87,D93,0,-(H86/C93))</f>
-        <v>19.614513079383347</v>
+        <v>19.662916555816103</v>
       </c>
       <c r="K93" s="24"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B94" s="1" t="s">
         <v>232</v>
       </c>
       <c r="C94" s="188">
         <f>Dashboard!G20</f>
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="D94" s="147"/>
       <c r="E94" s="87" t="s">
@@ -10520,22 +10531,22 @@
       </c>
       <c r="F94" s="146">
         <f>FV(E89,D93,0,-(E88/C93))</f>
-        <v>8.165494457438502</v>
+        <v>8.1748169899538468</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>231</v>
       </c>
       <c r="I94" s="146">
         <f>FV(H89,D93,0,-(H88/C93))</f>
-        <v>8.165494457438502</v>
+        <v>8.1748169899538468</v>
       </c>
       <c r="K94" s="24"/>
     </row>
-    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E95" s="24"/>
       <c r="K95" s="24"/>
     </row>
-    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="5"/>
       <c r="B96" s="107" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
@@ -10561,30 +10572,30 @@
       </c>
       <c r="K96" s="24"/>
     </row>
-    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B97" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>62320262.536508895</v>
+        <v>62474052.607501768</v>
       </c>
       <c r="E97" s="124">
         <f>PV(C94,D93,0,-F93)*Exchange_Rate</f>
-        <v>9.751879577273419</v>
+        <v>6.4431444970098211</v>
       </c>
       <c r="F97" s="124">
         <f>PV(C93,D93,0,-F93)*Exchange_Rate</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="H97" s="124">
         <f>PV(C93,D93,0,-I93)*Exchange_Rate</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="I97" s="224"/>
       <c r="K97" s="24"/>
     </row>
-    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B98" s="28" t="s">
         <v>155</v>
       </c>
@@ -10601,7 +10612,7 @@
       <c r="I98" s="224"/>
       <c r="K98" s="24"/>
     </row>
-    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B99" s="106" t="s">
         <v>156</v>
       </c>
@@ -10618,37 +10629,37 @@
       <c r="I99" s="225"/>
       <c r="K99" s="24"/>
     </row>
-    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B100" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C100" s="91">
         <f>C97-C98+$C$99</f>
-        <v>62320262.536508895</v>
+        <v>62474052.607501768</v>
       </c>
       <c r="E100" s="110">
         <f>MAX(E97-F98+F99,0)</f>
-        <v>9.751879577273419</v>
+        <v>6.4431444970098211</v>
       </c>
       <c r="F100" s="110">
         <f>MAX(F97-H98+H99,0)</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="H100" s="110">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>14.249233656031027</v>
+        <v>14.284397029328296</v>
       </c>
       <c r="I100" s="110">
         <f>H100*1.25</f>
-        <v>17.811542070038783</v>
+        <v>17.855496286660369</v>
       </c>
       <c r="K100" s="24"/>
     </row>
-    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F101" s="24"/>
       <c r="K101" s="24"/>
     </row>
-    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B102" s="10" t="s">
         <v>174</v>
       </c>
@@ -10672,37 +10683,37 @@
       </c>
       <c r="K102" s="24"/>
     </row>
-    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B103" s="1" t="s">
         <v>173</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>25943838.435777985</v>
+        <v>25973458.476383124</v>
       </c>
       <c r="E103" s="110">
         <f>PV(C94,D93,0,-F94)*Exchange_Rate</f>
-        <v>4.0596938764455555</v>
+        <v>2.6787240312680765</v>
       </c>
       <c r="F103" s="124">
         <f>PV(C93,D93,0,-F94)*Exchange_Rate</f>
-        <v>5.9319361112952729</v>
+        <v>5.9387085936678643</v>
       </c>
       <c r="H103" s="124">
         <f>PV(C93,D93,0,-I94)*Exchange_Rate</f>
-        <v>5.9319361112952729</v>
+        <v>5.9387085936678643</v>
       </c>
       <c r="I103" s="110">
         <f>H103*1.25</f>
-        <v>7.4149201391190909</v>
+        <v>7.4233857420848306</v>
       </c>
       <c r="K103" s="24"/>
     </row>
-    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F104" s="24"/>
       <c r="K104" s="24"/>
     </row>
-    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B105" s="10" t="s">
         <v>214</v>
       </c>
@@ -10724,36 +10735,36 @@
       </c>
       <c r="K105" s="24"/>
     </row>
-    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B106" s="1" t="s">
         <v>215</v>
       </c>
       <c r="C106" s="91">
         <f>F106*Common_Shares/Data!C4</f>
-        <v>44132050.48614344</v>
+        <v>44223755.541942455</v>
       </c>
       <c r="E106" s="110">
         <f>(E100+E103)/2</f>
-        <v>6.9057867268594872</v>
+        <v>4.5609342641389485</v>
       </c>
       <c r="F106" s="124">
         <f>(F100+F103)/2</f>
-        <v>10.09058488366315</v>
+        <v>10.111552811498081</v>
       </c>
       <c r="H106" s="124">
         <f>(H100+H103)/2</f>
-        <v>10.09058488366315</v>
+        <v>10.111552811498081</v>
       </c>
       <c r="I106" s="110">
         <f>H106*1.25</f>
-        <v>12.613231104578936</v>
+        <v>12.639441014372601</v>
       </c>
       <c r="K106" s="24"/>
     </row>
-    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K107" s="24"/>
     </row>
-    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B108" s="10" t="s">
         <v>177</v>
       </c>
